--- a/communitys/회의록.xlsx
+++ b/communitys/회의록.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aclass\Desktop\tmp\1119\새 폴더\communitys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyutae\Desktop\SSAFY\Projects\Final-backend\communitys\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1171B103-DEC9-4A50-BFE7-3611A66DA7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1119목" sheetId="1" r:id="rId1"/>
+    <sheet name="기능 회의" sheetId="3" r:id="rId1"/>
+    <sheet name="1119목" sheetId="1" r:id="rId2"/>
+    <sheet name="1120금" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>회의록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,12 +85,167 @@
     <t>참석자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>11/20/금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 한 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 할 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Movies Vue 제작
+- Community 풀스택 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Signup, Login 풀스택 완성
+- TMDB를 이용한 DB 완성
+- Movies index완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 추천 알고리즘 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사람이 쓴 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사람이 쓴 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사람이 좋아요한 영화(제목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한줄평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓴 리뷰를 바탕으로 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +261,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +288,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,22 +382,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -215,9 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -227,11 +413,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,6 +491,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE5D1E7"/>
+      <color rgb="FFCCA892"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,11 +770,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B04B3FA-AC2D-4230-902F-527D97927E1B}">
+  <dimension ref="B2:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="C12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,16 +1106,16 @@
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -570,7 +1124,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -579,10 +1133,10 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -590,22 +1144,22 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -614,33 +1168,33 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -655,4 +1209,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7B75C-61F2-46C6-9023-ED4556F33269}">
+  <dimension ref="B2:K16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>